--- a/src/assets/templates/批量新增用户模板.xlsx
+++ b/src/assets/templates/批量新增用户模板.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27126"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\HWorkSpace\others\vue-manager-system\src\assets\templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6191FA74-3CFD-4790-9524-1E8FDB5D995A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B98DDCE9-D175-42F4-93DB-CB6719D28366}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="10890" yWindow="21480" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,11 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
-  <si>
-    <t>用户号</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
   <si>
     <t>用户姓名</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -39,6 +35,26 @@
   </si>
   <si>
     <t>手机号码</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>登录用户名</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>admin</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>超级管理员</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>男</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>moban@xxx.com</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -46,7 +62,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
@@ -59,6 +75,14 @@
       <name val="等线"/>
       <family val="3"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="等线"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -100,24 +124,34 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="超链接" xfId="1" builtinId="8"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -429,10 +463,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E7"/>
+  <dimension ref="A1:E2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+      <selection activeCell="E1" sqref="E1:E1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="21" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -441,70 +475,48 @@
     <col min="2" max="2" width="15.109375" customWidth="1"/>
     <col min="3" max="3" width="13.33203125" customWidth="1"/>
     <col min="4" max="4" width="20.44140625" customWidth="1"/>
-    <col min="5" max="5" width="22.77734375" customWidth="1"/>
+    <col min="5" max="5" width="22.77734375" style="3" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="C1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="4" t="s">
         <v>3</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>4</v>
       </c>
     </row>
     <row r="2" spans="1:5" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="2"/>
-      <c r="B2" s="2"/>
-      <c r="C2" s="2"/>
-      <c r="D2" s="2"/>
-      <c r="E2" s="2"/>
-    </row>
-    <row r="3" spans="1:5" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="2"/>
-      <c r="B3" s="2"/>
-      <c r="C3" s="2"/>
-      <c r="D3" s="2"/>
-      <c r="E3" s="2"/>
-    </row>
-    <row r="4" spans="1:5" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="2"/>
-      <c r="B4" s="2"/>
-      <c r="C4" s="2"/>
-      <c r="D4" s="2"/>
-      <c r="E4" s="2"/>
-    </row>
-    <row r="5" spans="1:5" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="2"/>
-      <c r="B5" s="2"/>
-      <c r="C5" s="2"/>
-      <c r="D5" s="2"/>
-      <c r="E5" s="2"/>
-    </row>
-    <row r="6" spans="1:5" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="2"/>
-      <c r="B6" s="2"/>
-      <c r="C6" s="2"/>
-      <c r="D6" s="2"/>
-      <c r="E6" s="2"/>
-    </row>
-    <row r="7" spans="1:5" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="2"/>
-      <c r="B7" s="2"/>
-      <c r="C7" s="2"/>
-      <c r="D7" s="2"/>
-      <c r="E7" s="2"/>
+      <c r="A2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E2" s="3">
+        <v>13932132122</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
+  <hyperlinks>
+    <hyperlink ref="D2" r:id="rId1" xr:uid="{F25194F0-CFCB-4D3A-AB36-4883AF966C0B}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>